--- a/data/fifa-player.xlsx
+++ b/data/fifa-player.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$234</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,13 +33,7 @@
     <t>Roman Weidenfeller</t>
   </si>
   <si>
-    <t>Jérôme Boateng</t>
-  </si>
-  <si>
     <t>Mats Hummels</t>
-  </si>
-  <si>
-    <t>Benedikt Höwedes</t>
   </si>
   <si>
     <t>Holger Badstuber</t>
@@ -71,63 +65,36 @@
     </r>
   </si>
   <si>
-    <t>Mesut Özil</t>
-  </si>
-  <si>
-    <t>Thomas Müller</t>
-  </si>
-  <si>
     <t>Toni Kroos</t>
   </si>
   <si>
     <t>Sami Khedira</t>
   </si>
   <si>
-    <t>André Schürrle</t>
-  </si>
-  <si>
     <t>Marco Reus</t>
   </si>
   <si>
-    <t>İlkay Gündoğan</t>
-  </si>
-  <si>
     <t>Christoph Kramer</t>
   </si>
   <si>
     <t>Karim Bellarabi</t>
   </si>
   <si>
-    <t>Mario Götze</t>
-  </si>
-  <si>
     <t>Max Kruse</t>
   </si>
   <si>
     <t>Sergio Romero</t>
   </si>
   <si>
-    <t>Gerónimo Rulli</t>
-  </si>
-  <si>
-    <t>Nahuel Guzmán</t>
-  </si>
-  <si>
     <t>Ezequiel Garay</t>
   </si>
   <si>
-    <t>Nicolás Otamendi</t>
-  </si>
-  <si>
     <t>Pablo Zabaleta</t>
   </si>
   <si>
     <t>Facundo Roncaglia</t>
   </si>
   <si>
-    <t>Lucas Orbán</t>
-  </si>
-  <si>
     <t>Marcos Rojo</t>
   </si>
   <si>
@@ -143,28 +110,13 @@
     <t>Lucas Biglia</t>
   </si>
   <si>
-    <t>Ángel Di María</t>
-  </si>
-  <si>
-    <t>Enzo Pérez INJ</t>
-  </si>
-  <si>
     <t>Javier Mascherano</t>
   </si>
   <si>
     <t>Javier Pastore</t>
   </si>
   <si>
-    <t>Éver Banega</t>
-  </si>
-  <si>
-    <t>Maxi Rodríguez</t>
-  </si>
-  <si>
     <t>Roberto Pereyra</t>
-  </si>
-  <si>
-    <t>Gonzalo Higuaín</t>
   </si>
   <si>
     <r>
@@ -181,9 +133,6 @@
     </r>
   </si>
   <si>
-    <t>Sergio Agüero</t>
-  </si>
-  <si>
     <t>Ezequiel Lavezzi</t>
   </si>
   <si>
@@ -245,9 +194,6 @@
     <t>Jason Denayer</t>
   </si>
   <si>
-    <t>Mousa Dembélé</t>
-  </si>
-  <si>
     <t>Marouane Fellaini</t>
   </si>
   <si>
@@ -319,39 +265,13 @@
     <t>Johan Mojica</t>
   </si>
   <si>
-    <t>Carlos Sánchez</t>
-  </si>
-  <si>
     <t>Abel Aguilar</t>
   </si>
   <si>
     <t>Juan Guillermo Cuadrado</t>
   </si>
   <si>
-    <r>
-      <t>Fredy Guarín</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF252525"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Juan Fernando Quintero</t>
-  </si>
-  <si>
-    <t>Andrés Rentería</t>
-  </si>
-  <si>
-    <t>Alexander Mejía</t>
-  </si>
-  <si>
-    <t>Wílmar Barrios</t>
   </si>
   <si>
     <t>Edwin Cardona</t>
@@ -371,18 +291,9 @@
     </r>
   </si>
   <si>
-    <t>Rafael Santos Borré</t>
-  </si>
-  <si>
     <t>Carlos Bacca</t>
   </si>
   <si>
-    <t>Teófilo Gutiérrez</t>
-  </si>
-  <si>
-    <t>Adrián Ramos</t>
-  </si>
-  <si>
     <t>Jefferson</t>
   </si>
   <si>
@@ -402,9 +313,6 @@
   </si>
   <si>
     <t>Danilo</t>
-  </si>
-  <si>
-    <t>Filipe Luís</t>
   </si>
   <si>
     <t>Gil</t>
@@ -488,9 +396,6 @@
     <t>Gregory van der Wiel</t>
   </si>
   <si>
-    <t>Joël Veltman</t>
-  </si>
-  <si>
     <t>Jeffrey Bruma</t>
   </si>
   <si>
@@ -518,9 +423,6 @@
     <t>Georginio Wijnaldum</t>
   </si>
   <si>
-    <t>Jonathan de Guzmán</t>
-  </si>
-  <si>
     <t>Ibrahim Afellay</t>
   </si>
   <si>
@@ -545,39 +447,21 @@
     <t>Vitorino Antunes</t>
   </si>
   <si>
-    <t>André Almeida</t>
-  </si>
-  <si>
-    <t>Cédric Soares</t>
-  </si>
-  <si>
     <t>Paulo Oliveira</t>
   </si>
   <si>
-    <t>André Pinto</t>
-  </si>
-  <si>
     <t>Tiago Pinto</t>
   </si>
   <si>
     <t>Vieirinha</t>
   </si>
   <si>
-    <t>André Gomes</t>
-  </si>
-  <si>
     <t>Pizzi</t>
   </si>
   <si>
-    <t>João Mário</t>
-  </si>
-  <si>
     <t>Adrien Silva</t>
   </si>
   <si>
-    <t>André André</t>
-  </si>
-  <si>
     <t>Bernardo Silva</t>
   </si>
   <si>
@@ -587,9 +471,6 @@
     <t>Hugo Almeida</t>
   </si>
   <si>
-    <t>Éder</t>
-  </si>
-  <si>
     <t>Ivan Cavaleiro</t>
   </si>
   <si>
@@ -599,92 +480,27 @@
     <t>Rui Fonte</t>
   </si>
   <si>
-    <t>Lucas João</t>
-  </si>
-  <si>
     <t>Fernando Muslera</t>
   </si>
   <si>
-    <t>Martín Silva</t>
-  </si>
-  <si>
     <t>Maxi Pereira</t>
   </si>
   <si>
-    <r>
-      <t>Diego Godín</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF252525"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Álvaro Pereira</t>
-  </si>
-  <si>
-    <t>Sebastián Coates</t>
-  </si>
-  <si>
-    <t>José Giménez</t>
-  </si>
-  <si>
-    <t>Mathías Corujo</t>
-  </si>
-  <si>
-    <t>Gastón Silva</t>
-  </si>
-  <si>
-    <t>Emiliano Velázquez</t>
-  </si>
-  <si>
-    <t>Egidio Arévalo Ríos</t>
-  </si>
-  <si>
-    <t>Álvaro González</t>
-  </si>
-  <si>
-    <t>Nicolás Lodeiro</t>
-  </si>
-  <si>
-    <t>Gastón Ramírez</t>
-  </si>
-  <si>
     <t>Camilo Mayada</t>
   </si>
   <si>
     <t>Giorgian De Arrascaeta</t>
   </si>
   <si>
-    <t>Guzmán Pereira</t>
-  </si>
-  <si>
     <t>Edinson Cavani</t>
   </si>
   <si>
-    <t>Abel Hernández</t>
-  </si>
-  <si>
     <t>Christian Stuani</t>
   </si>
   <si>
-    <t>Diego Rolán</t>
-  </si>
-  <si>
-    <t>Jonathan Rodríguez</t>
-  </si>
-  <si>
     <t>Yann Sommer</t>
   </si>
   <si>
-    <t>Roman Bürki</t>
-  </si>
-  <si>
     <t>Marwin Hitz</t>
   </si>
   <si>
@@ -697,12 +513,6 @@
     <t>Steve von Bergen</t>
   </si>
   <si>
-    <t>Ricardo Rodríguez</t>
-  </si>
-  <si>
-    <t>Fabian Schär</t>
-  </si>
-  <si>
     <t>François Moubandje</t>
   </si>
   <si>
@@ -712,21 +522,6 @@
     <t>Fabian Lustenberger</t>
   </si>
   <si>
-    <r>
-      <t>Gökhan İnler</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Valon Behrami</t>
   </si>
   <si>
@@ -736,9 +531,6 @@
     <t>Xherdan Shaqiri</t>
   </si>
   <si>
-    <t>Blerim Džemaili</t>
-  </si>
-  <si>
     <t>Granit Xhaka</t>
   </si>
   <si>
@@ -752,12 +544,6 @@
   </si>
   <si>
     <t>Admir Mehmedi</t>
-  </si>
-  <si>
-    <t>Haris Seferović</t>
-  </si>
-  <si>
-    <t>Josip Drmić</t>
   </si>
   <si>
     <t>Breel Embolo</t>
@@ -784,12 +570,6 @@
     <t>Sergio Asenjo</t>
   </si>
   <si>
-    <t>Raúl Albiol</t>
-  </si>
-  <si>
-    <t>Gerard Piqué</t>
-  </si>
-  <si>
     <t>Marc Bartra</t>
   </si>
   <si>
@@ -805,24 +585,12 @@
     <t>Juan Bernat</t>
   </si>
   <si>
-    <t>Mikel San José</t>
-  </si>
-  <si>
     <t>Sergio Busquets</t>
   </si>
   <si>
-    <t>Andrés Iniesta</t>
-  </si>
-  <si>
     <t>Koke</t>
   </si>
   <si>
-    <t>Cesc Fàbregas</t>
-  </si>
-  <si>
-    <t>Mario Suárez</t>
-  </si>
-  <si>
     <t>Vitolo</t>
   </si>
   <si>
@@ -835,9 +603,6 @@
     <t>Isco</t>
   </si>
   <si>
-    <t>Álvaro Morata</t>
-  </si>
-  <si>
     <t>Juanmi</t>
   </si>
   <si>
@@ -862,9 +627,6 @@
     <t>1899 Hoffenheim</t>
   </si>
   <si>
-    <t>1. FC Köln</t>
-  </si>
-  <si>
     <t>Inter Milan</t>
   </si>
   <si>
@@ -877,9 +639,6 @@
     <t>VfL Wolfsburg</t>
   </si>
   <si>
-    <t>Borussia Mönchengladbach</t>
-  </si>
-  <si>
     <t>Bayer Leverkusen</t>
   </si>
   <si>
@@ -976,9 +735,6 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>Atlético Nacional</t>
-  </si>
-  <si>
     <t>Beşiktaş</t>
   </si>
   <si>
@@ -1021,18 +777,12 @@
     <t>Grêmio</t>
   </si>
   <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
     <t>Corinthians</t>
   </si>
   <si>
     <t>Shakhtar Donetsk</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>Santos</t>
   </si>
   <si>
@@ -1087,12 +837,6 @@
     <t>Rio Ave</t>
   </si>
   <si>
-    <t>Vitória de Guimarães</t>
-  </si>
-  <si>
-    <t>Marítimo</t>
-  </si>
-  <si>
     <t>Kuban Krasnodar</t>
   </si>
   <si>
@@ -1168,9 +912,6 @@
     <t>Athletic Bilbao</t>
   </si>
   <si>
-    <t>Málaga</t>
-  </si>
-  <si>
     <t>ClubID</t>
   </si>
   <si>
@@ -1214,6 +955,231 @@
   </si>
   <si>
     <t>NationName</t>
+  </si>
+  <si>
+    <t>ever Banega</t>
+  </si>
+  <si>
+    <t>Mousa Dembele</t>
+  </si>
+  <si>
+    <t>Atletico Nacional</t>
+  </si>
+  <si>
+    <t>Rafael Santos Borre</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Andre Almeida</t>
+  </si>
+  <si>
+    <t>Cedric Soares</t>
+  </si>
+  <si>
+    <t>Andre Pinto</t>
+  </si>
+  <si>
+    <t>Andre Gomes</t>
+  </si>
+  <si>
+    <t>Andre Andre</t>
+  </si>
+  <si>
+    <t>eder</t>
+  </si>
+  <si>
+    <t>Jose Gimenez</t>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+  </si>
+  <si>
+    <t>Mikel San Jose</t>
+  </si>
+  <si>
+    <t>Andres Iniesta</t>
+  </si>
+  <si>
+    <t>Jerome Boateng</t>
+  </si>
+  <si>
+    <t>Benedikt HOwedes</t>
+  </si>
+  <si>
+    <t>1. FC KOln</t>
+  </si>
+  <si>
+    <t>Mesut Ozil</t>
+  </si>
+  <si>
+    <t>Borussia MOnchengladbach</t>
+  </si>
+  <si>
+    <t>Mario GOtze</t>
+  </si>
+  <si>
+    <t>Nahuel GuzmAn</t>
+  </si>
+  <si>
+    <t>NicolAs Otamendi</t>
+  </si>
+  <si>
+    <t>Lucas OrbAn</t>
+  </si>
+  <si>
+    <t>Carlos SAnchez</t>
+  </si>
+  <si>
+    <t>AdriAn Ramos</t>
+  </si>
+  <si>
+    <t>Jonathan de GuzmAn</t>
+  </si>
+  <si>
+    <t>Alvaro Pereira</t>
+  </si>
+  <si>
+    <t>SebastiAn Coates</t>
+  </si>
+  <si>
+    <t>Emiliano VelAzquez</t>
+  </si>
+  <si>
+    <t>Alvaro GonzAlez</t>
+  </si>
+  <si>
+    <t>NicolAs Lodeiro</t>
+  </si>
+  <si>
+    <t>GuzmAn Pereira</t>
+  </si>
+  <si>
+    <t>Abel HernAndez</t>
+  </si>
+  <si>
+    <t>Diego RolAn</t>
+  </si>
+  <si>
+    <t>Mario SuArez</t>
+  </si>
+  <si>
+    <t>Alvaro Morata</t>
+  </si>
+  <si>
+    <t>MAlaga</t>
+  </si>
+  <si>
+    <t>Angel Di Maria</t>
+  </si>
+  <si>
+    <t>Maxi Rodriguez</t>
+  </si>
+  <si>
+    <t>Gonzalo Higuain</t>
+  </si>
+  <si>
+    <t>Fredy Guarin</t>
+  </si>
+  <si>
+    <t>Andres Renteria</t>
+  </si>
+  <si>
+    <t>Alexander Mejia</t>
+  </si>
+  <si>
+    <t>Wilmar Barrios</t>
+  </si>
+  <si>
+    <t>Filipe Luis</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Martin Silva</t>
+  </si>
+  <si>
+    <t>Diego Godin</t>
+  </si>
+  <si>
+    <t>Mathias Corujo</t>
+  </si>
+  <si>
+    <t>Egidio Arevalo Rios</t>
+  </si>
+  <si>
+    <t>Jonathan Rodriguez</t>
+  </si>
+  <si>
+    <t>Ricardo Rodriguez</t>
+  </si>
+  <si>
+    <t>GOkhan Inler</t>
+  </si>
+  <si>
+    <t>Thomas Muller</t>
+  </si>
+  <si>
+    <t>Andre Schurrle</t>
+  </si>
+  <si>
+    <t>Sergio Aguero</t>
+  </si>
+  <si>
+    <t>Roman Burki</t>
+  </si>
+  <si>
+    <t>Ilkay Gundogan</t>
+  </si>
+  <si>
+    <t>Geronimo Rulli</t>
+  </si>
+  <si>
+    <t>Teofilo Gutierrez</t>
+  </si>
+  <si>
+    <t>Gaston Silva</t>
+  </si>
+  <si>
+    <t>Gaston Ramirez</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Joao MArio</t>
+  </si>
+  <si>
+    <t>Vitoria de Guimaraes</t>
+  </si>
+  <si>
+    <t>Lucas Joao</t>
+  </si>
+  <si>
+    <t>Joel Veltman</t>
+  </si>
+  <si>
+    <t>Blerim Dzemaili</t>
+  </si>
+  <si>
+    <t>Cesc Fabregas</t>
+  </si>
+  <si>
+    <t>Raul Albiol</t>
+  </si>
+  <si>
+    <t>Haris Seferovic</t>
+  </si>
+  <si>
+    <t>Josip Drmic</t>
+  </si>
+  <si>
+    <t>Fabian Schar</t>
+  </si>
+  <si>
+    <t>Enzo Perez INJ</t>
   </si>
 </sst>
 </file>
@@ -1641,13 +1607,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
@@ -1656,22 +1622,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickTop="1">
@@ -1685,13 +1651,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E2">
         <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
@@ -1705,13 +1671,13 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
@@ -1725,13 +1691,13 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>343</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
@@ -1739,19 +1705,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>343</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
@@ -1759,19 +1725,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
@@ -1779,19 +1745,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="C7">
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
@@ -1799,19 +1765,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>343</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -1819,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -1839,19 +1805,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -1859,19 +1825,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="E11">
         <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -1879,19 +1845,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <v>343</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
@@ -1899,19 +1865,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>343</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
@@ -1919,19 +1885,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>343</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
@@ -1939,19 +1905,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>343</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
@@ -1959,19 +1925,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E16">
         <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
@@ -1979,19 +1945,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E17">
         <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -1999,19 +1965,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="C18">
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
@@ -2019,19 +1985,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>343</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
@@ -2039,19 +2005,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <v>343</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -2059,19 +2025,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="E21">
         <v>343</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
@@ -2079,19 +2045,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="E22">
         <v>343</v>
       </c>
       <c r="F22" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
@@ -2099,19 +2065,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E23">
         <v>343</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
@@ -2119,19 +2085,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="E24">
         <v>343</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
@@ -2139,19 +2105,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="E25">
         <v>344</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -2159,19 +2125,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="C26">
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="E26">
         <v>344</v>
       </c>
       <c r="F26" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
@@ -2179,19 +2145,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="C27">
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="E27">
         <v>344</v>
       </c>
       <c r="F27" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
@@ -2199,19 +2165,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E28">
         <v>344</v>
       </c>
       <c r="F28" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
@@ -2219,19 +2185,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E29">
         <v>344</v>
       </c>
       <c r="F29" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
@@ -2239,19 +2205,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E30">
         <v>344</v>
       </c>
       <c r="F30" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
@@ -2259,19 +2225,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="E31">
         <v>344</v>
       </c>
       <c r="F31" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
@@ -2279,19 +2245,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
       <c r="C32">
         <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E32">
         <v>344</v>
       </c>
       <c r="F32" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
@@ -2299,19 +2265,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -2319,19 +2285,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>344</v>
       </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -2339,19 +2305,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>344</v>
       </c>
       <c r="F35" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -2359,19 +2325,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="E36">
         <v>344</v>
       </c>
       <c r="F36" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -2379,19 +2345,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="E37">
         <v>344</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -2399,19 +2365,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="C38">
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E38">
         <v>344</v>
       </c>
       <c r="F38" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -2419,19 +2385,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="C39">
         <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>344</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -2439,19 +2405,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E40">
         <v>344</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -2459,19 +2425,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>344</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -2479,19 +2445,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="C42">
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="E42">
         <v>344</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -2499,19 +2465,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="C43">
         <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="E43">
         <v>344</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -2519,19 +2485,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E44">
         <v>344</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -2539,19 +2505,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="C45">
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E45">
         <v>344</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -2559,19 +2525,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E46">
         <v>344</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -2579,19 +2545,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="C47">
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E47">
         <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -2599,19 +2565,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C48">
         <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E48">
         <v>344</v>
       </c>
       <c r="F48" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -2619,19 +2585,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>344</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -2639,19 +2605,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C50">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E50">
         <v>345</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -2659,19 +2625,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="E51">
         <v>345</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -2679,19 +2645,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="E52">
         <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -2699,19 +2665,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E53">
         <v>345</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -2719,19 +2685,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="E54">
         <v>345</v>
       </c>
       <c r="F54" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -2739,19 +2705,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="E55">
         <v>345</v>
       </c>
       <c r="F55" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -2759,19 +2725,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E56">
         <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -2779,19 +2745,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="E57">
         <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -2799,19 +2765,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="E58">
         <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -2819,19 +2785,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C59">
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="E59">
         <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -2839,19 +2805,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C60">
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="E60">
         <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -2859,19 +2825,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="C61">
         <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="E61">
         <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -2879,19 +2845,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E62">
         <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -2899,19 +2865,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C63">
         <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E63">
         <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -2919,19 +2885,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C64">
         <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E64">
         <v>345</v>
       </c>
       <c r="F64" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -2939,19 +2905,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C65">
         <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="E65">
         <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -2959,19 +2925,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C66">
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E66">
         <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -2979,19 +2945,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C67">
         <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E67">
         <v>345</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -2999,19 +2965,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E68">
         <v>345</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -3019,19 +2985,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E69">
         <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -3039,19 +3005,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="E70">
         <v>345</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -3059,19 +3025,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C71">
         <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="E71">
         <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -3079,19 +3045,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C72">
         <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="E72">
         <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -3099,19 +3065,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E73">
         <v>346</v>
       </c>
       <c r="F73" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -3119,19 +3085,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C74">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E74">
         <v>346</v>
       </c>
       <c r="F74" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -3139,19 +3105,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C75">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="E75">
         <v>346</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -3159,19 +3125,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C76">
         <v>93</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="E76">
         <v>346</v>
       </c>
       <c r="F76" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -3179,19 +3145,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C77">
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E77">
         <v>346</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -3199,19 +3165,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="E78">
         <v>346</v>
       </c>
       <c r="F78" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -3219,19 +3185,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C79">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="E79">
         <v>346</v>
       </c>
       <c r="F79" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -3239,19 +3205,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C80">
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E80">
         <v>346</v>
       </c>
       <c r="F80" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -3259,19 +3225,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C81">
         <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="E81">
         <v>346</v>
       </c>
       <c r="F81" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -3279,19 +3245,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="C82">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="E82">
         <v>346</v>
       </c>
       <c r="F82" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -3299,19 +3265,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C83">
         <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E83">
         <v>346</v>
       </c>
       <c r="F83" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -3319,19 +3285,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C84">
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E84">
         <v>346</v>
       </c>
       <c r="F84" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -3339,19 +3305,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="C85">
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="E85">
         <v>346</v>
       </c>
       <c r="F85" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -3359,19 +3325,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C86">
         <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="E86">
         <v>346</v>
       </c>
       <c r="F86" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -3379,19 +3345,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="C87">
         <v>82</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="E87">
         <v>346</v>
       </c>
       <c r="F87" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -3399,19 +3365,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="C88">
         <v>63</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="E88">
         <v>346</v>
       </c>
       <c r="F88" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -3419,19 +3385,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="C89">
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="E89">
         <v>346</v>
       </c>
       <c r="F89" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -3439,19 +3405,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C90">
         <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="E90">
         <v>346</v>
       </c>
       <c r="F90" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -3459,19 +3425,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C91">
         <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>346</v>
       </c>
       <c r="F91" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -3479,19 +3445,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="C92">
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="E92">
         <v>346</v>
       </c>
       <c r="F92" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -3499,19 +3465,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C93">
         <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="E93">
         <v>346</v>
       </c>
       <c r="F93" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -3519,19 +3485,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="C94">
         <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="E94">
         <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -3539,19 +3505,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E95">
         <v>346</v>
       </c>
       <c r="F95" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1">
@@ -3559,19 +3525,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C96">
         <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="E96">
         <v>347</v>
       </c>
       <c r="F96" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.25" customHeight="1">
@@ -3579,19 +3545,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C97">
         <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E97">
         <v>347</v>
       </c>
       <c r="F97" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.25" customHeight="1">
@@ -3599,19 +3565,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C98">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="E98">
         <v>347</v>
       </c>
       <c r="F98" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.25" customHeight="1">
@@ -3619,19 +3585,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C99">
         <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E99">
         <v>347</v>
       </c>
       <c r="F99" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.25" customHeight="1">
@@ -3639,19 +3605,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C100">
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E100">
         <v>347</v>
       </c>
       <c r="F100" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.25" customHeight="1">
@@ -3659,19 +3625,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C101">
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E101">
         <v>347</v>
       </c>
       <c r="F101" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" customHeight="1">
@@ -3679,19 +3645,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C102">
         <v>72</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="E102">
         <v>347</v>
       </c>
       <c r="F102" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.25" customHeight="1">
@@ -3699,19 +3665,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="C103">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E103">
         <v>347</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.25" customHeight="1">
@@ -3719,19 +3685,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C104">
         <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="E104">
         <v>347</v>
       </c>
       <c r="F104" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.25" customHeight="1">
@@ -3739,19 +3705,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C105">
         <v>62</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E105">
         <v>347</v>
       </c>
       <c r="F105" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.25" customHeight="1">
@@ -3759,19 +3725,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E106">
         <v>347</v>
       </c>
       <c r="F106" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.25" customHeight="1">
@@ -3779,19 +3745,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C107">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E107">
         <v>347</v>
       </c>
       <c r="F107" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.25" customHeight="1">
@@ -3799,19 +3765,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C108">
         <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E108">
         <v>347</v>
       </c>
       <c r="F108" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" customHeight="1">
@@ -3819,19 +3785,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C109">
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E109">
         <v>347</v>
       </c>
       <c r="F109" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.25" customHeight="1">
@@ -3839,19 +3805,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C110">
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="E110">
         <v>347</v>
       </c>
       <c r="F110" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.25" customHeight="1">
@@ -3859,19 +3825,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C111">
         <v>57</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E111">
         <v>347</v>
       </c>
       <c r="F111" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.25" customHeight="1">
@@ -3879,19 +3845,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C112">
         <v>54</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="E112">
         <v>347</v>
       </c>
       <c r="F112" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.25" customHeight="1">
@@ -3899,19 +3865,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C113">
         <v>88</v>
       </c>
       <c r="D113" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="E113">
         <v>347</v>
       </c>
       <c r="F113" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" customHeight="1">
@@ -3919,19 +3885,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C114">
         <v>83</v>
       </c>
       <c r="D114" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="E114">
         <v>347</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.25" customHeight="1">
@@ -3939,19 +3905,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C115">
         <v>81</v>
       </c>
       <c r="D115" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="E115">
         <v>347</v>
       </c>
       <c r="F115" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14.25" customHeight="1">
@@ -3959,19 +3925,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C116">
         <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E116">
         <v>347</v>
       </c>
       <c r="F116" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.25" customHeight="1">
@@ -3979,19 +3945,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C117">
         <v>88</v>
       </c>
       <c r="D117" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="E117">
         <v>347</v>
       </c>
       <c r="F117" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.25" customHeight="1">
@@ -3999,19 +3965,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C118">
         <v>45</v>
       </c>
       <c r="D118" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="E118">
         <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.25" customHeight="1">
@@ -4019,19 +3985,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C119">
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="E119">
         <v>348</v>
       </c>
       <c r="F119" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14.25" customHeight="1">
@@ -4039,19 +4005,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C120">
         <v>68</v>
       </c>
       <c r="D120" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="E120">
         <v>348</v>
       </c>
       <c r="F120" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14.25" customHeight="1">
@@ -4059,19 +4025,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E121">
         <v>348</v>
       </c>
       <c r="F121" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.25" customHeight="1">
@@ -4079,19 +4045,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C122">
         <v>68</v>
       </c>
       <c r="D122" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="E122">
         <v>348</v>
       </c>
       <c r="F122" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14.25" customHeight="1">
@@ -4099,19 +4065,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C123">
         <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="E123">
         <v>348</v>
       </c>
       <c r="F123" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14.25" customHeight="1">
@@ -4119,19 +4085,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C124">
         <v>72</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="E124">
         <v>348</v>
       </c>
       <c r="F124" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" customHeight="1">
@@ -4139,19 +4105,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C125">
         <v>73</v>
       </c>
       <c r="D125" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>348</v>
       </c>
       <c r="F125" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.25" customHeight="1">
@@ -4159,19 +4125,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C126">
         <v>71</v>
       </c>
       <c r="D126" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E126">
         <v>348</v>
       </c>
       <c r="F126" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14.25" customHeight="1">
@@ -4179,19 +4145,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>126</v>
+        <v>349</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E127">
         <v>348</v>
       </c>
       <c r="F127" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14.25" customHeight="1">
@@ -4199,19 +4165,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C128">
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E128">
         <v>348</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.25" customHeight="1">
@@ -4219,19 +4185,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C129">
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E129">
         <v>348</v>
       </c>
       <c r="F129" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14.25" customHeight="1">
@@ -4239,19 +4205,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C130">
         <v>73</v>
       </c>
       <c r="D130" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E130">
         <v>348</v>
       </c>
       <c r="F130" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14.25" customHeight="1">
@@ -4259,19 +4225,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="E131">
         <v>348</v>
       </c>
       <c r="F131" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14.25" customHeight="1">
@@ -4279,19 +4245,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C132">
         <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="E132">
         <v>348</v>
       </c>
       <c r="F132" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.25" customHeight="1">
@@ -4299,19 +4265,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C133">
         <v>73</v>
       </c>
       <c r="D133" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E133">
         <v>348</v>
       </c>
       <c r="F133" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.25" customHeight="1">
@@ -4319,19 +4285,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C134">
         <v>61</v>
       </c>
       <c r="D134" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E134">
         <v>348</v>
       </c>
       <c r="F134" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.25" customHeight="1">
@@ -4339,19 +4305,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C135">
         <v>91</v>
       </c>
       <c r="D135" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="E135">
         <v>348</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.25" customHeight="1">
@@ -4359,19 +4325,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C136">
         <v>73</v>
       </c>
       <c r="D136" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E136">
         <v>348</v>
       </c>
       <c r="F136" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.25" customHeight="1">
@@ -4379,19 +4345,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="C137">
         <v>67</v>
       </c>
       <c r="D137" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E137">
         <v>348</v>
       </c>
       <c r="F137" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.25" customHeight="1">
@@ -4399,19 +4365,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C138">
         <v>70</v>
       </c>
       <c r="D138" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="E138">
         <v>348</v>
       </c>
       <c r="F138" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.25" customHeight="1">
@@ -4419,19 +4385,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C139">
         <v>86</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="E139">
         <v>348</v>
       </c>
       <c r="F139" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.25" customHeight="1">
@@ -4439,19 +4405,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C140">
         <v>73</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E140">
         <v>348</v>
       </c>
       <c r="F140" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.25" customHeight="1">
@@ -4459,19 +4425,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C141">
         <v>107</v>
       </c>
       <c r="D141" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E141">
         <v>348</v>
       </c>
       <c r="F141" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14.25" customHeight="1">
@@ -4479,19 +4445,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C142">
         <v>55</v>
       </c>
       <c r="D142" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="E142">
         <v>349</v>
       </c>
       <c r="F142" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14.25" customHeight="1">
@@ -4499,19 +4465,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C143">
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="E143">
         <v>349</v>
       </c>
       <c r="F143" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.25" customHeight="1">
@@ -4519,19 +4485,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C144">
         <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="E144">
         <v>349</v>
       </c>
       <c r="F144" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.25" customHeight="1">
@@ -4539,19 +4505,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C145">
         <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="E145">
         <v>349</v>
       </c>
       <c r="F145" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.25" customHeight="1">
@@ -4559,19 +4525,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="C146">
         <v>89</v>
       </c>
       <c r="D146" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="E146">
         <v>349</v>
       </c>
       <c r="F146" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.25" customHeight="1">
@@ -4579,19 +4545,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="C147">
         <v>92</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E147">
         <v>349</v>
       </c>
       <c r="F147" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.25" customHeight="1">
@@ -4599,19 +4565,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C148">
         <v>92</v>
       </c>
       <c r="D148" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E148">
         <v>349</v>
       </c>
       <c r="F148" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.25" customHeight="1">
@@ -4619,19 +4585,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="C149">
         <v>84</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="E149">
         <v>349</v>
       </c>
       <c r="F149" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.25" customHeight="1">
@@ -4639,19 +4605,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C150">
         <v>77</v>
       </c>
       <c r="D150" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="E150">
         <v>349</v>
       </c>
       <c r="F150" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14.25" customHeight="1">
@@ -4659,19 +4625,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C151">
         <v>107</v>
       </c>
       <c r="D151" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="E151">
         <v>349</v>
       </c>
       <c r="F151" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14.25" customHeight="1">
@@ -4679,19 +4645,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="C152">
         <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="E152">
         <v>349</v>
       </c>
       <c r="F152" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14.25" customHeight="1">
@@ -4699,19 +4665,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C153">
         <v>89</v>
       </c>
       <c r="D153" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="E153">
         <v>349</v>
       </c>
       <c r="F153" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14.25" customHeight="1">
@@ -4719,19 +4685,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="C154">
         <v>92</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E154">
         <v>349</v>
       </c>
       <c r="F154" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14.25" customHeight="1">
@@ -4739,19 +4705,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C155">
         <v>92</v>
       </c>
       <c r="D155" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="E155">
         <v>349</v>
       </c>
       <c r="F155" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14.25" customHeight="1">
@@ -4759,19 +4725,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="C156">
         <v>106</v>
       </c>
       <c r="D156" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="E156">
         <v>349</v>
       </c>
       <c r="F156" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14.25" customHeight="1">
@@ -4779,19 +4745,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C157">
         <v>62</v>
       </c>
       <c r="D157" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="E157">
         <v>349</v>
       </c>
       <c r="F157" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14.25" customHeight="1">
@@ -4799,19 +4765,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C158">
         <v>59</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E158">
         <v>349</v>
       </c>
       <c r="F158" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="14.25" customHeight="1">
@@ -4819,19 +4785,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C159">
         <v>51</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="E159">
         <v>349</v>
       </c>
       <c r="F159" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14.25" customHeight="1">
@@ -4839,19 +4805,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="C160">
         <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="E160">
         <v>349</v>
       </c>
       <c r="F160" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14.25" customHeight="1">
@@ -4859,19 +4825,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C161">
         <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="E161">
         <v>349</v>
       </c>
       <c r="F161" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14.25" customHeight="1">
@@ -4879,19 +4845,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C162">
         <v>77</v>
       </c>
       <c r="D162" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="E162">
         <v>349</v>
       </c>
       <c r="F162" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14.25" customHeight="1">
@@ -4899,19 +4865,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="C163">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="E163">
         <v>349</v>
       </c>
       <c r="F163" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.25" customHeight="1">
@@ -4919,19 +4885,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>348</v>
       </c>
       <c r="C164">
         <v>66</v>
       </c>
       <c r="D164" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="E164">
         <v>349</v>
       </c>
       <c r="F164" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.25" customHeight="1">
@@ -4939,19 +4905,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C165">
         <v>37</v>
       </c>
       <c r="D165" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="E165">
         <v>350</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.25" customHeight="1">
@@ -4959,19 +4925,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="C166">
         <v>103</v>
       </c>
       <c r="D166" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="E166">
         <v>350</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="14.25" customHeight="1">
@@ -4979,19 +4945,19 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C167">
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="E167">
         <v>350</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="14.25" customHeight="1">
@@ -4999,19 +4965,19 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="C168">
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E168">
         <v>350</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.25" customHeight="1">
@@ -5019,19 +4985,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="C169">
         <v>33</v>
       </c>
       <c r="D169" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E169">
         <v>350</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.25" customHeight="1">
@@ -5039,19 +5005,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="C170">
         <v>94</v>
       </c>
       <c r="D170" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="E170">
         <v>350</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.25" customHeight="1">
@@ -5059,19 +5025,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="C171">
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E171">
         <v>350</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="14.25" customHeight="1">
@@ -5079,19 +5045,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="C172">
         <v>100</v>
       </c>
       <c r="D172" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="E172">
         <v>350</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="14.25" customHeight="1">
@@ -5099,19 +5065,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="C173">
         <v>95</v>
       </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="E173">
         <v>350</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.25" customHeight="1">
@@ -5119,19 +5085,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="C174">
         <v>39</v>
       </c>
       <c r="D174" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="E174">
         <v>350</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="14.25" customHeight="1">
@@ -5139,19 +5105,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="C175">
         <v>98</v>
       </c>
       <c r="D175" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="E175">
         <v>350</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.25" customHeight="1">
@@ -5159,19 +5125,19 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="C176">
         <v>95</v>
       </c>
       <c r="D176" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="E176">
         <v>350</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="14.25" customHeight="1">
@@ -5179,19 +5145,19 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="C177">
         <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="E177">
         <v>350</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="14.25" customHeight="1">
@@ -5199,19 +5165,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="C178">
         <v>46</v>
       </c>
       <c r="D178" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="E178">
         <v>350</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="14.25" customHeight="1">
@@ -5219,19 +5185,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C179">
         <v>78</v>
       </c>
       <c r="D179" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="E179">
         <v>350</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.25" customHeight="1">
@@ -5239,19 +5205,19 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C180">
         <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="E180">
         <v>350</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="14.25" customHeight="1">
@@ -5259,19 +5225,19 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="C181">
         <v>100</v>
       </c>
       <c r="D181" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="E181">
         <v>350</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.25" customHeight="1">
@@ -5279,19 +5245,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="C182">
         <v>78</v>
       </c>
       <c r="D182" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="E182">
         <v>350</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.25" customHeight="1">
@@ -5299,19 +5265,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="C183">
         <v>71</v>
       </c>
       <c r="D183" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="E183">
         <v>350</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.25" customHeight="1">
@@ -5319,19 +5285,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="C184">
         <v>46</v>
       </c>
       <c r="D184" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="E184">
         <v>350</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="14.25" customHeight="1">
@@ -5339,19 +5305,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="C185">
         <v>32</v>
       </c>
       <c r="D185" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="E185">
         <v>350</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="14.25" customHeight="1">
@@ -5359,19 +5325,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="C186">
         <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="E186">
         <v>350</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="14.25" customHeight="1">
@@ -5379,19 +5345,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="C187">
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="E187">
         <v>350</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="14.25" customHeight="1">
@@ -5399,19 +5365,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C188">
         <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="E188">
         <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="14.25" customHeight="1">
@@ -5419,19 +5385,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="C189">
         <v>85</v>
       </c>
       <c r="D189" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="E189">
         <v>351</v>
       </c>
       <c r="F189" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.25" customHeight="1">
@@ -5439,19 +5405,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C190">
         <v>34</v>
       </c>
       <c r="D190" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="E190">
         <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="14.25" customHeight="1">
@@ -5459,19 +5425,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="C191">
         <v>50</v>
       </c>
       <c r="D191" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E191">
         <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="14.25" customHeight="1">
@@ -5479,19 +5445,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="C192">
         <v>42</v>
       </c>
       <c r="D192" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="E192">
         <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="14.25" customHeight="1">
@@ -5499,19 +5465,19 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C193">
         <v>108</v>
       </c>
       <c r="D193" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="E193">
         <v>351</v>
       </c>
       <c r="F193" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.25" customHeight="1">
@@ -5519,19 +5485,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="C194">
         <v>104</v>
       </c>
       <c r="D194" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="E194">
         <v>351</v>
       </c>
       <c r="F194" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="14.25" customHeight="1">
@@ -5539,19 +5505,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="C195">
         <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E195">
         <v>351</v>
       </c>
       <c r="F195" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="14.25" customHeight="1">
@@ -5559,19 +5525,19 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C196">
         <v>97</v>
       </c>
       <c r="D196" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E196">
         <v>351</v>
       </c>
       <c r="F196" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="14.25" customHeight="1">
@@ -5579,19 +5545,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C197">
         <v>99</v>
       </c>
       <c r="D197" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="E197">
         <v>351</v>
       </c>
       <c r="F197" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="14.25" customHeight="1">
@@ -5599,19 +5565,19 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C198">
         <v>44</v>
       </c>
       <c r="D198" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="E198">
         <v>351</v>
       </c>
       <c r="F198" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14.25" customHeight="1">
@@ -5619,19 +5585,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="C199">
         <v>67</v>
       </c>
       <c r="D199" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E199">
         <v>351</v>
       </c>
       <c r="F199" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="14.25" customHeight="1">
@@ -5639,19 +5605,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="C200">
         <v>42</v>
       </c>
       <c r="D200" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="E200">
         <v>351</v>
       </c>
       <c r="F200" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="14.25" customHeight="1">
@@ -5659,19 +5625,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C201">
         <v>76</v>
       </c>
       <c r="D201" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="E201">
         <v>351</v>
       </c>
       <c r="F201" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="14.25" customHeight="1">
@@ -5679,19 +5645,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="C202">
         <v>49</v>
       </c>
       <c r="D202" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="E202">
         <v>351</v>
       </c>
       <c r="F202" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="14.25" customHeight="1">
@@ -5699,19 +5665,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="C203">
         <v>37</v>
       </c>
       <c r="D203" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="E203">
         <v>351</v>
       </c>
       <c r="F203" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="14.25" customHeight="1">
@@ -5719,19 +5685,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="C204">
         <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="E204">
         <v>351</v>
       </c>
       <c r="F204" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="14.25" customHeight="1">
@@ -5739,19 +5705,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C205">
         <v>44</v>
       </c>
       <c r="D205" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="E205">
         <v>351</v>
       </c>
       <c r="F205" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="14.25" customHeight="1">
@@ -5759,19 +5725,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C206">
         <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E206">
         <v>351</v>
       </c>
       <c r="F206" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="14.25" customHeight="1">
@@ -5779,19 +5745,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C207">
         <v>70</v>
       </c>
       <c r="D207" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="E207">
         <v>351</v>
       </c>
       <c r="F207" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="14.25" customHeight="1">
@@ -5799,19 +5765,19 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="C208">
         <v>85</v>
       </c>
       <c r="D208" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="E208">
         <v>351</v>
       </c>
       <c r="F208" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="14.25" customHeight="1">
@@ -5819,19 +5785,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="C209">
         <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="E209">
         <v>351</v>
       </c>
       <c r="F209" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="14.25" customHeight="1">
@@ -5839,19 +5805,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="C210">
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="E210">
         <v>351</v>
       </c>
       <c r="F210" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="14.25" customHeight="1">
@@ -5859,19 +5825,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="C211">
         <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E211">
         <v>351</v>
       </c>
       <c r="F211" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="14.25" customHeight="1">
@@ -5879,19 +5845,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="C212">
         <v>74</v>
       </c>
       <c r="D212" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E212">
         <v>352</v>
       </c>
       <c r="F212" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="14.25" customHeight="1">
@@ -5899,19 +5865,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="C213">
         <v>58</v>
       </c>
       <c r="D213" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="E213">
         <v>352</v>
       </c>
       <c r="F213" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="14.25" customHeight="1">
@@ -5919,19 +5885,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C214">
         <v>105</v>
       </c>
       <c r="D214" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="E214">
         <v>352</v>
       </c>
       <c r="F214" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="14.25" customHeight="1">
@@ -5939,19 +5905,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="C215">
         <v>67</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="E215">
         <v>352</v>
       </c>
       <c r="F215" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="14.25" customHeight="1">
@@ -5959,19 +5925,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C216">
         <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E216">
         <v>352</v>
       </c>
       <c r="F216" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14.25" customHeight="1">
@@ -5979,19 +5945,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="C217">
         <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E217">
         <v>352</v>
       </c>
       <c r="F217" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="14.25" customHeight="1">
@@ -5999,19 +5965,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="C218">
         <v>74</v>
       </c>
       <c r="D218" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E218">
         <v>352</v>
       </c>
       <c r="F218" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="14.25" customHeight="1">
@@ -6019,19 +5985,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="C219">
         <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E219">
         <v>352</v>
       </c>
       <c r="F219" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="14.25" customHeight="1">
@@ -6039,19 +6005,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="C220">
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E220">
         <v>352</v>
       </c>
       <c r="F220" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="14.25" customHeight="1">
@@ -6059,19 +6025,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C221">
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E221">
         <v>352</v>
       </c>
       <c r="F221" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="14.25" customHeight="1">
@@ -6079,19 +6045,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="C222">
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="E222">
         <v>352</v>
       </c>
       <c r="F222" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="14.25" customHeight="1">
@@ -6099,19 +6065,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C223">
         <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E223">
         <v>352</v>
       </c>
       <c r="F223" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="14.25" customHeight="1">
@@ -6119,19 +6085,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="C224">
         <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E224">
         <v>352</v>
       </c>
       <c r="F224" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="14.25" customHeight="1">
@@ -6139,19 +6105,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="C225">
         <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E225">
         <v>352</v>
       </c>
       <c r="F225" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="14.25" customHeight="1">
@@ -6159,19 +6125,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="C226">
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="E226">
         <v>352</v>
       </c>
       <c r="F226" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="14.25" customHeight="1">
@@ -6179,19 +6145,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="C227">
         <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E227">
         <v>352</v>
       </c>
       <c r="F227" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="14.25" customHeight="1">
@@ -6199,19 +6165,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="C228">
         <v>87</v>
       </c>
       <c r="D228" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="E228">
         <v>352</v>
       </c>
       <c r="F228" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="14.25" customHeight="1">
@@ -6219,19 +6185,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C229">
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="E229">
         <v>352</v>
       </c>
       <c r="F229" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="14.25" customHeight="1">
@@ -6239,19 +6205,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="C230">
         <v>57</v>
       </c>
       <c r="D230" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E230">
         <v>352</v>
       </c>
       <c r="F230" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="14.25" customHeight="1">
@@ -6259,19 +6225,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="C231">
         <v>74</v>
       </c>
       <c r="D231" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="E231">
         <v>352</v>
       </c>
       <c r="F231" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="14.25" customHeight="1">
@@ -6279,19 +6245,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C232">
         <v>50</v>
       </c>
       <c r="D232" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="E232">
         <v>352</v>
       </c>
       <c r="F232" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="14.25" customHeight="1">
@@ -6299,19 +6265,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="C233">
         <v>56</v>
       </c>
       <c r="D233" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="E233">
         <v>352</v>
       </c>
       <c r="F233" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="14.25" customHeight="1">
@@ -6319,23 +6285,23 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="C234">
         <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="E234">
         <v>352</v>
       </c>
       <c r="F234" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F234"/>
   <hyperlinks>
     <hyperlink ref="B43" r:id="rId1" tooltip="Maxi Rodríguez" display="http://en.wikipedia.org/wiki/Maxi_Rodr%C3%ADguez"/>
     <hyperlink ref="B44" r:id="rId2" tooltip="Roberto Pereyra" display="http://en.wikipedia.org/wiki/Roberto_Pereyra"/>
